--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B222A6-E997-4890-AB95-165232D6E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8B5DC-F9B7-49F4-AE7B-2781CAC5AB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>int</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -262,31 +262,59 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>60010101,60010101,60010101,60010101</t>
+    <t>武器类型</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业能力</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacitys</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>61021101,61021201,61021301,61021401</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>武器类型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponType</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业能力</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capacitys</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,90,40</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,30,90</t>
+    <t>61022101,61022201,61022301,61022401</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>61023101,61023201,61023301,61023401</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>62021101,62021201,62021301,62021401</t>
+  </si>
+  <si>
+    <t>62022101,62022201,62022301,62022401</t>
+  </si>
+  <si>
+    <t>62023101,62023201,62023301,62023401</t>
+  </si>
+  <si>
+    <t>70,70,70</t>
+  </si>
+  <si>
+    <t>75,80,55</t>
+  </si>
+  <si>
+    <t>85,50,75</t>
+  </si>
+  <si>
+    <t>75,50,85</t>
+  </si>
+  <si>
+    <t>70,70,90</t>
+  </si>
+  <si>
+    <t>80,60,70</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2727,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2767,10 +2795,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>21</v>
@@ -2799,10 +2827,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>22</v>
@@ -2860,10 +2888,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J6" s="14">
         <v>1</v>
@@ -2892,13 +2920,13 @@
         <v>15</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J7" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="13">
         <v>12</v>
@@ -2924,10 +2952,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J8" s="14">
         <v>1</v>
@@ -2956,13 +2984,13 @@
         <v>36</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J9" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="13">
         <v>11</v>
@@ -2988,10 +3016,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J10" s="14">
         <v>2</v>
@@ -3020,10 +3048,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J11" s="14">
         <v>2</v>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8B5DC-F9B7-49F4-AE7B-2781CAC5AB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E100C-344E-4C06-BBEE-7B12E0DA8130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,14 +90,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>元素武士</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>光之剑魂</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillID</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -148,10 +140,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>魔神战士</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>速度专精：移动速度提升10%,装备精通：布甲,移动光环：小队内移动速度提升10%</t>
   </si>
   <si>
@@ -214,10 +202,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>光之魔导</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>法杖精通：使用法杖类武器伤害提升5%,装备精通：布甲,双防光环：附近己方单位防御效果增加10%</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -232,10 +216,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>精灵魔师</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法书类专精：使用魔法书类武器伤害提升5%,装备精通：布甲,减速光环：附近敌方单位移动速度降低10%</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -244,10 +224,6 @@
   </si>
   <si>
     <t>40001102,40000201</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵之师</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -316,6 +292,30 @@
   <si>
     <t>80,60,70</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔导师</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>驭剑士</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>光灵使者</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣牧师</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐风者</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神武士</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1992,7 +1992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2019,19 +2019,16 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2756,14 +2753,14 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.375" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="38.375" customWidth="1"/>
     <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
@@ -2783,28 +2780,28 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,28 +2812,28 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2850,25 +2847,25 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,31 +2873,31 @@
         <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="14">
+        <v>44</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="13">
         <v>1</v>
       </c>
       <c r="K6" s="13">
         <v>12</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2908,31 +2905,31 @@
         <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="14">
+        <v>45</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="13">
         <v>2</v>
       </c>
       <c r="K7" s="13">
         <v>12</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2940,31 +2937,31 @@
         <v>103</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="14">
+        <v>46</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="13">
         <v>1</v>
       </c>
       <c r="K8" s="13">
         <v>13</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2972,31 +2969,31 @@
         <v>201</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="14">
+        <v>47</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="13">
         <v>1</v>
       </c>
       <c r="K9" s="13">
         <v>11</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,31 +3001,31 @@
         <v>202</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="14">
+        <v>48</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="13">
         <v>2</v>
       </c>
       <c r="K10" s="13">
         <v>11</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3036,31 +3033,31 @@
         <v>203</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="14">
+        <v>49</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="13">
         <v>2</v>
       </c>
       <c r="K11" s="13">
         <v>13</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356E100C-344E-4C06-BBEE-7B12E0DA8130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA28FD-EC8A-495F-8E08-1EC828AB11AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>速度专精：移动速度提升10%,装备精通：布甲,移动光环：小队内移动速度提升10%</t>
-  </si>
-  <si>
     <t>刀类专精：使用刀类武器伤害提升5%,装备精通：重甲,伤害光环：小队内造成伤害提升5%</t>
   </si>
   <si>
@@ -170,18 +167,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>63002001,63002002,63002003,61022101,61022201,61022301,61022401</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>63003001,63003002,63003003,61023101,61023201,61023301,61023401</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>63001001,63001002,63001003,61021101,61021201,61021301,61021401</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>转职显示被动技能</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -206,9 +191,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>63101001,63101002,63101003,62021101,62021201,62021301,62021401</t>
-  </si>
-  <si>
     <t>20001,20002,20003,20011,20012,20013,20021,20022,20023,20031,20032,20033,20041,20042,20043,20051,20052,20053</t>
   </si>
   <si>
@@ -220,18 +202,12 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>63102001,63102002,63102003,62022101,62022201,62022301,62022401</t>
-  </si>
-  <si>
     <t>40001102,40000201</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>技能精通：技能效果提升10%,装备精通：重甲,心灵光环：附近敌方单位受到伤害额外提升10%</t>
     <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>63103001,63103002,63103003,62023101,62023201,62023301,62023401</t>
   </si>
   <si>
     <t>40001103,40000203</t>
@@ -316,6 +292,34 @@
   <si>
     <t>魔神武士</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度专精：移动速度提升10%,装备精通：轻甲,移动光环：小队内移动速度提升10%</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>63001001,63001002,63001004,61021101,61021201,61021301,61021401</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>63002001,63002002,63002004,61022101,61022201,61022301,61022401</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>63003001,63003002,63003004,61023101,61023201,61023301,61023401</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>63101001,63101002,63101004,62021101,62021201,62021301,62021401</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>63102001,63102002,63102004,62022101,62022201,62022301,62022401</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>63103001,63103002,63103004,62023101,62023201,62023301,62023401</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2752,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2789,19 +2793,19 @@
         <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2821,19 +2825,19 @@
         <v>12</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2862,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>7</v>
@@ -2873,22 +2877,22 @@
         <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J6" s="13">
         <v>1</v>
@@ -2897,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,22 +2909,22 @@
         <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J7" s="13">
         <v>2</v>
@@ -2929,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2937,22 +2941,22 @@
         <v>103</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J8" s="13">
         <v>1</v>
@@ -2961,7 +2965,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,22 +2973,22 @@
         <v>201</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J9" s="13">
         <v>1</v>
@@ -2993,7 +2997,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3001,22 +3005,22 @@
         <v>202</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J10" s="13">
         <v>2</v>
@@ -3025,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3033,22 +3037,22 @@
         <v>203</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J11" s="13">
         <v>2</v>
@@ -3057,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588FED0-A76E-41CB-A1D9-B83AA7B6DD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BDBBD5-7D94-4302-944C-5A53898C342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -2163,7 +2163,7 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2397,7 +2397,7 @@
         <v>46</v>
       </c>
       <c r="J9" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" s="11">
         <v>11</v>
@@ -2429,7 +2429,7 @@
         <v>52</v>
       </c>
       <c r="J10" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="11">
         <v>11</v>
@@ -2461,7 +2461,7 @@
         <v>58</v>
       </c>
       <c r="J11" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" s="11">
         <v>13</v>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BDBBD5-7D94-4302-944C-5A53898C342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AC3516-F561-4AAE-904E-8071D6E6DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -131,136 +131,142 @@
     <t>Capacitys</t>
   </si>
   <si>
+    <t>ShowPassiveSkill</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>逐风者</t>
+  </si>
+  <si>
+    <t>速度专精：移动速度提升10%,装备精通：轻甲,移动光环：小队内移动速度提升10%</t>
+  </si>
+  <si>
+    <t>63001001,63001002,63001004,61021101,61021201,61021301,61021401</t>
+  </si>
+  <si>
+    <t>10001,10002,10003,10011,10012,10013,10021,10022,10023,10031,10032,10033,10041,10042,10043,10051,10052,10053</t>
+  </si>
+  <si>
+    <t>63001001,63001004,61021101,61021201,61021301,61021401</t>
+  </si>
+  <si>
+    <t>80,60,70</t>
+  </si>
+  <si>
+    <t>40000101,40000202</t>
+  </si>
+  <si>
+    <t>驭剑士</t>
+  </si>
+  <si>
+    <t>剑类专精：使用剑类武器伤害提升5%,装备精通：轻甲,暴击光环：小队内暴击概率提升5%</t>
+  </si>
+  <si>
+    <t>63002001,63002002,63002004,61022101,61022201,61022301,61022401</t>
+  </si>
+  <si>
+    <t>63002001,63002004,61022101,61022201,61022301,61022401</t>
+  </si>
+  <si>
+    <t>70,70,70</t>
+  </si>
+  <si>
+    <t>40000102,40000202</t>
+  </si>
+  <si>
+    <t>魔神武士</t>
+  </si>
+  <si>
+    <t>刀类专精：使用刀类武器伤害提升5%,装备精通：重甲,伤害光环：小队内造成伤害提升5%</t>
+  </si>
+  <si>
+    <t>63003001,63003002,63003004,61023101,61023201,61023301,61023401</t>
+  </si>
+  <si>
+    <t>63003001,63003004,61023101,61023201,61023301,61023401</t>
+  </si>
+  <si>
+    <t>75,80,55</t>
+  </si>
+  <si>
+    <t>40000103,40000203</t>
+  </si>
+  <si>
+    <t>魔导师</t>
+  </si>
+  <si>
+    <t>法杖精通：使用法杖类武器伤害提升5%,装备精通：布甲,双防光环：附近己方单位防御效果增加10%</t>
+  </si>
+  <si>
+    <t>63101001,63101002,63101004,62021101,62021201,62021301,62021401</t>
+  </si>
+  <si>
+    <t>20001,20002,20003,20011,20012,20013,20021,20022,20023,20031,20032,20033,20041,20042,20043,20051,20052,20053</t>
+  </si>
+  <si>
+    <t>63101001,63101004,62021101,62021201,62021301,62021401</t>
+  </si>
+  <si>
+    <t>85,50,75</t>
+  </si>
+  <si>
+    <t>40001101,40000201</t>
+  </si>
+  <si>
+    <t>光灵使者</t>
+  </si>
+  <si>
+    <t>魔法书类专精：使用魔法书类武器伤害提升5%,装备精通：布甲,减速光环：附近敌方单位移动速度降低10%</t>
+  </si>
+  <si>
+    <t>63102001,63102002,63102004,62022101,62022201,62022301,62022401</t>
+  </si>
+  <si>
+    <t>63102001,63102004,62022101,62022201,62022301,62022401</t>
+  </si>
+  <si>
+    <t>75,50,85</t>
+  </si>
+  <si>
+    <t>40001102,40000201</t>
+  </si>
+  <si>
+    <t>神圣牧师</t>
+  </si>
+  <si>
+    <t>技能精通：技能效果提升10%,装备精通：重甲,心灵光环：附近敌方单位受到伤害额外提升10%</t>
+  </si>
+  <si>
+    <t>63103001,63103002,63103004,62023101,62023201,62023301,62023401</t>
+  </si>
+  <si>
+    <t>63103001,63103004,62023101,62023201,62023301,62023401</t>
+  </si>
+  <si>
+    <t>70,70,90</t>
+  </si>
+  <si>
+    <t>40001103,40000203</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmorMastery</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>WeaponType</t>
-  </si>
-  <si>
-    <t>ArmorMastery</t>
-  </si>
-  <si>
-    <t>ShowPassiveSkill</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>逐风者</t>
-  </si>
-  <si>
-    <t>速度专精：移动速度提升10%,装备精通：轻甲,移动光环：小队内移动速度提升10%</t>
-  </si>
-  <si>
-    <t>63001001,63001002,63001004,61021101,61021201,61021301,61021401</t>
-  </si>
-  <si>
-    <t>10001,10002,10003,10011,10012,10013,10021,10022,10023,10031,10032,10033,10041,10042,10043,10051,10052,10053</t>
-  </si>
-  <si>
-    <t>63001001,63001004,61021101,61021201,61021301,61021401</t>
-  </si>
-  <si>
-    <t>80,60,70</t>
-  </si>
-  <si>
-    <t>40000101,40000202</t>
-  </si>
-  <si>
-    <t>驭剑士</t>
-  </si>
-  <si>
-    <t>剑类专精：使用剑类武器伤害提升5%,装备精通：轻甲,暴击光环：小队内暴击概率提升5%</t>
-  </si>
-  <si>
-    <t>63002001,63002002,63002004,61022101,61022201,61022301,61022401</t>
-  </si>
-  <si>
-    <t>63002001,63002004,61022101,61022201,61022301,61022401</t>
-  </si>
-  <si>
-    <t>70,70,70</t>
-  </si>
-  <si>
-    <t>40000102,40000202</t>
-  </si>
-  <si>
-    <t>魔神武士</t>
-  </si>
-  <si>
-    <t>刀类专精：使用刀类武器伤害提升5%,装备精通：重甲,伤害光环：小队内造成伤害提升5%</t>
-  </si>
-  <si>
-    <t>63003001,63003002,63003004,61023101,61023201,61023301,61023401</t>
-  </si>
-  <si>
-    <t>63003001,63003004,61023101,61023201,61023301,61023401</t>
-  </si>
-  <si>
-    <t>75,80,55</t>
-  </si>
-  <si>
-    <t>40000103,40000203</t>
-  </si>
-  <si>
-    <t>魔导师</t>
-  </si>
-  <si>
-    <t>法杖精通：使用法杖类武器伤害提升5%,装备精通：布甲,双防光环：附近己方单位防御效果增加10%</t>
-  </si>
-  <si>
-    <t>63101001,63101002,63101004,62021101,62021201,62021301,62021401</t>
-  </si>
-  <si>
-    <t>20001,20002,20003,20011,20012,20013,20021,20022,20023,20031,20032,20033,20041,20042,20043,20051,20052,20053</t>
-  </si>
-  <si>
-    <t>63101001,63101004,62021101,62021201,62021301,62021401</t>
-  </si>
-  <si>
-    <t>85,50,75</t>
-  </si>
-  <si>
-    <t>40001101,40000201</t>
-  </si>
-  <si>
-    <t>光灵使者</t>
-  </si>
-  <si>
-    <t>魔法书类专精：使用魔法书类武器伤害提升5%,装备精通：布甲,减速光环：附近敌方单位移动速度降低10%</t>
-  </si>
-  <si>
-    <t>63102001,63102002,63102004,62022101,62022201,62022301,62022401</t>
-  </si>
-  <si>
-    <t>63102001,63102004,62022101,62022201,62022301,62022401</t>
-  </si>
-  <si>
-    <t>75,50,85</t>
-  </si>
-  <si>
-    <t>40001102,40000201</t>
-  </si>
-  <si>
-    <t>神圣牧师</t>
-  </si>
-  <si>
-    <t>技能精通：技能效果提升10%,装备精通：重甲,心灵光环：附近敌方单位受到伤害额外提升10%</t>
-  </si>
-  <si>
-    <t>63103001,63103002,63103004,62023101,62023201,62023301,62023401</t>
-  </si>
-  <si>
-    <t>63103001,63103004,62023101,62023201,62023301,62023401</t>
-  </si>
-  <si>
-    <t>70,70,90</t>
-  </si>
-  <si>
-    <t>40001103,40000203</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1475,7 +1481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1515,6 +1521,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2163,7 +2172,7 @@
   <dimension ref="C1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2236,46 +2245,46 @@
       <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,22 +2292,22 @@
         <v>101</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
@@ -2307,7 +2316,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,22 +2324,22 @@
         <v>102</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
@@ -2339,7 +2348,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2347,22 +2356,22 @@
         <v>103</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="J8" s="11">
         <v>2</v>
@@ -2371,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,22 +2388,22 @@
         <v>201</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="J9" s="11">
         <v>3</v>
@@ -2403,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2411,22 +2420,22 @@
         <v>202</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="J10" s="11">
         <v>4</v>
@@ -2435,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2443,22 +2452,22 @@
         <v>203</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="I11" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="J11" s="11">
         <v>4</v>
@@ -2467,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AC3516-F561-4AAE-904E-8071D6E6DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA825AE6-4AF1-4140-9BC6-DD86C93583CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -2169,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L11"/>
+  <dimension ref="C1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2479,6 +2479,15 @@
         <v>57</v>
       </c>
     </row>
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA825AE6-4AF1-4140-9BC6-DD86C93583CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BBCBBB-56B3-4D3F-90C1-D15B6003F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>剑类专精：使用剑类武器伤害提升5%,装备精通：轻甲,暴击光环：小队内暴击概率提升5%</t>
   </si>
   <si>
-    <t>63002001,63002002,63002004,61022101,61022201,61022301,61022401</t>
-  </si>
-  <si>
     <t>63002001,63002004,61022101,61022201,61022301,61022401</t>
   </si>
   <si>
@@ -266,6 +263,10 @@
   </si>
   <si>
     <t>WeaponType</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>63002001,63002002,63002004,63002005,61022101,61022201,61022301,61022401</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2171,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2246,10 +2247,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2281,7 +2282,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2330,16 +2331,16 @@
         <v>28</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
@@ -2348,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2356,22 +2357,22 @@
         <v>103</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="J8" s="11">
         <v>2</v>
@@ -2380,7 +2381,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2388,22 +2389,22 @@
         <v>201</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="J9" s="11">
         <v>3</v>
@@ -2412,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2420,22 +2421,22 @@
         <v>202</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="J10" s="11">
         <v>4</v>
@@ -2444,7 +2445,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2452,22 +2453,22 @@
         <v>203</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="J11" s="11">
         <v>4</v>
@@ -2476,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BBCBBB-56B3-4D3F-90C1-D15B6003F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568B773-C7AC-41CB-9CB1-92871920AEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>63001001,63001002,63001004,61021101,61021201,61021301,61021401</t>
   </si>
   <si>
-    <t>10001,10002,10003,10011,10012,10013,10021,10022,10023,10031,10032,10033,10041,10042,10043,10051,10052,10053</t>
-  </si>
-  <si>
     <t>63001001,63001004,61021101,61021201,61021301,61021401</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
   </si>
   <si>
     <t>63101001,63101002,63101004,62021101,62021201,62021301,62021401</t>
-  </si>
-  <si>
-    <t>20001,20002,20003,20011,20012,20013,20021,20022,20023,20031,20032,20033,20041,20042,20043,20051,20052,20053</t>
   </si>
   <si>
     <t>63101001,63101004,62021101,62021201,62021301,62021401</t>
@@ -267,6 +261,14 @@
   </si>
   <si>
     <t>63002001,63002002,63002004,63002005,61022101,61022201,61022301,61022401</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10002,10003,10011,10012,10013,10021,10022,10023,10031,10032,10033,10041,10042,10043,10051,10052,10053,10061,10062,10063</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001,20002,20003,20011,20012,20013,20021,20022,20023,20031,20032,20033,20041,20042,20043,20051,20052,20053,20061,20062,20063</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2173,7 +2175,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2247,10 +2249,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2282,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2302,13 +2304,13 @@
         <v>22</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
@@ -2317,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,22 +2327,22 @@
         <v>102</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
@@ -2349,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,22 +2359,22 @@
         <v>103</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="J8" s="11">
         <v>2</v>
@@ -2381,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2389,22 +2391,22 @@
         <v>201</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="J9" s="11">
         <v>3</v>
@@ -2413,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2421,22 +2423,22 @@
         <v>202</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="J10" s="11">
         <v>4</v>
@@ -2445,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2453,22 +2455,22 @@
         <v>203</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="I11" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="J11" s="11">
         <v>4</v>
@@ -2477,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568B773-C7AC-41CB-9CB1-92871920AEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9123494D-53D6-4D2D-A43F-286C45994BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>速度专精：移动速度提升10%,装备精通：轻甲,移动光环：小队内移动速度提升10%</t>
   </si>
   <si>
-    <t>63001001,63001002,63001004,61021101,61021201,61021301,61021401</t>
-  </si>
-  <si>
     <t>63001001,63001004,61021101,61021201,61021301,61021401</t>
   </si>
   <si>
@@ -269,6 +266,10 @@
   </si>
   <si>
     <t>20001,20002,20003,20011,20012,20013,20021,20022,20023,20031,20032,20033,20041,20042,20043,20051,20052,20053,20061,20062,20063</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>63001001,63001002,63001004,63001005,61021101,61021201,61021301,61021401</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2175,7 +2176,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2183,7 +2184,7 @@
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="71.375" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="68" customWidth="1"/>
     <col min="7" max="7" width="38.375" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="22.375" customWidth="1"/>
@@ -2249,10 +2250,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2284,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2301,16 +2302,16 @@
         <v>21</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
@@ -2319,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2327,22 +2328,22 @@
         <v>102</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
@@ -2351,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2359,22 +2360,22 @@
         <v>103</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="J8" s="11">
         <v>2</v>
@@ -2383,7 +2384,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,22 +2392,22 @@
         <v>201</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="J9" s="11">
         <v>3</v>
@@ -2415,7 +2416,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,22 +2424,22 @@
         <v>202</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="J10" s="11">
         <v>4</v>
@@ -2447,7 +2448,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,22 +2456,22 @@
         <v>203</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="J11" s="11">
         <v>4</v>
@@ -2479,7 +2480,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9123494D-53D6-4D2D-A43F-286C45994BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAB6C1F-7B89-45CE-9CF1-22D6D3F32673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,7 +269,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>63001001,63001002,63001004,63001005,61021101,61021201,61021301,61021401</t>
+    <t>63001001,63001002,63001004,61021101,61021201,61021301,61021401</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAB6C1F-7B89-45CE-9CF1-22D6D3F32673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF559891-CB56-43CF-91F6-FE75C0EFB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
+    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -58,12 +59,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{238C7F26-4B6E-4929-9D37-B9C0C0104C80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最后一个技能为觉醒技能</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -272,12 +299,28 @@
     <t>63001001,63001002,63001004,61021101,61021201,61021301,61021401</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>觉醒技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>JueXingSkill</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>69011001,69011002,69011003,69011004,69011005,69011006,69011101,70403003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,8 +411,30 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +537,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -552,6 +623,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1485,7 +1569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1528,6 +1612,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2173,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L20"/>
+  <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2191,11 +2278,12 @@
     <col min="10" max="10" width="18.875" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
     <col min="12" max="12" width="46.25" customWidth="1"/>
+    <col min="13" max="13" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2226,8 +2314,11 @@
       <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="M3" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2258,8 +2349,11 @@
       <c r="L4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2290,8 +2384,11 @@
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9">
         <v>101</v>
       </c>
@@ -2322,8 +2419,11 @@
       <c r="L6" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="M6" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="9">
         <v>102</v>
       </c>
@@ -2354,8 +2454,11 @@
       <c r="L7" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="M7" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>103</v>
       </c>
@@ -2386,8 +2489,11 @@
       <c r="L8" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="M8" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="9">
         <v>201</v>
       </c>
@@ -2418,8 +2524,11 @@
       <c r="L9" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="M9" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>202</v>
       </c>
@@ -2450,8 +2559,11 @@
       <c r="L10" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="M10" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="9">
         <v>203</v>
       </c>
@@ -2482,12 +2594,15 @@
       <c r="L11" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="M11" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF559891-CB56-43CF-91F6-FE75C0EFB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A0C6BF-77C6-4300-817E-9B31D6338969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -312,8 +312,28 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>69011001,69011002,69011003,69011004,69011005,69011006,69011101,70403003</t>
+    <t>69051001,69051002,69051003,69051011,69051012,69051013,69051014,60031111</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>69051001,69051002,69051003,69051021,69051022,69051023,69051024,60031121</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>69051001,69051002,69051003,69051031,69051032,69051033,69051034,60031131</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>69052001,69052002,69052003,69052011,69052012,69052013,69052014,60031141</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>69052001,69052002,69052003,69052021,69052022,69052023,69052024,60031151</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>69052001,69052002,69052003,69052031,69052032,69052033,69052034,60031161</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2260,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M20"/>
+  <dimension ref="C1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2278,7 +2298,7 @@
     <col min="10" max="10" width="18.875" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
     <col min="12" max="12" width="46.25" customWidth="1"/>
-    <col min="13" max="13" width="31.625" customWidth="1"/>
+    <col min="13" max="13" width="68.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2455,7 +2475,7 @@
         <v>29</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,7 +2510,7 @@
         <v>35</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2525,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2560,7 +2580,7 @@
         <v>47</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2595,18 +2615,11 @@
         <v>53</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A834EEA-3E28-4B04-9C19-22EC38E81E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09EC3AF-8774-4F94-8A05-F2EE074CA1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>OccDes</t>
   </si>
   <si>
-    <t>SkillID</t>
-  </si>
-  <si>
     <t>Talent</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>速度专精：移动速度提升10%,装备精通：轻甲,移动光环：小队内移动速度提升10%</t>
   </si>
   <si>
-    <t>63001001,63001002,63001004,61021101,61021201,61021301,61021401</t>
-  </si>
-  <si>
     <t>10001,10002,10003,10011,10012,10013,10021,10022,10023,10031,10032,10033,10041,10042,10043,10051,10052,10053,10061,10062,10063</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>剑类专精：使用剑类武器伤害提升5%,装备精通：轻甲,暴击光环：小队内暴击概率提升5%</t>
   </si>
   <si>
-    <t>63002001,63002002,63002004,63002005,61022101,61022201,61022301,61022401</t>
-  </si>
-  <si>
     <t>63002001,63002004,61022101,61022201,61022301,61022401</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>刀类专精：使用刀类武器伤害提升5%,装备精通：重甲,伤害光环：小队内造成伤害提升5%</t>
   </si>
   <si>
-    <t>63003001,63003002,63003004,61023101,61023201,61023301,61023401</t>
-  </si>
-  <si>
     <t>63003001,63003004,61023101,61023201,61023301,61023401</t>
   </si>
   <si>
@@ -271,9 +259,6 @@
     <t>法杖精通：使用法杖类武器伤害提升5%,装备精通：布甲,双防光环：附近己方单位防御效果增加10%</t>
   </si>
   <si>
-    <t>63101001,63101002,63101004,62021101,62021201,62021301,62021401</t>
-  </si>
-  <si>
     <t>20001,20002,20003,20011,20012,20013,20021,20022,20023,20031,20032,20033,20041,20042,20043,20051,20052,20053,20061,20062,20063</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
     <t>魔法书类专精：使用魔法书类武器伤害提升5%,装备精通：布甲,减速光环：附近敌方单位移动速度降低10%</t>
   </si>
   <si>
-    <t>63102001,63102002,63102004,62022101,62022201,62022301,62022401</t>
-  </si>
-  <si>
     <t>63102001,63102004,62022101,62022201,62022301,62022401</t>
   </si>
   <si>
@@ -316,9 +298,6 @@
     <t>技能精通：技能效果提升10%,装备精通：重甲,心灵光环：附近敌方单位受到伤害额外提升10%</t>
   </si>
   <si>
-    <t>63103001,63103002,63103004,62023101,62023201,62023301,62023401</t>
-  </si>
-  <si>
     <t>63103001,63103004,62023101,62023201,62023301,62023401</t>
   </si>
   <si>
@@ -334,9 +313,6 @@
     <t>生存大师</t>
   </si>
   <si>
-    <t>63201001,63201002,63201004,63021101,63021201,63021301,63021401</t>
-  </si>
-  <si>
     <t>63201001,63201004,63021101,63021201,63021301,63021401</t>
   </si>
   <si>
@@ -346,9 +322,6 @@
     <t>猎魔者</t>
   </si>
   <si>
-    <t>63202001,63202002,63202004,63022101,63022201,63022301,63022401</t>
-  </si>
-  <si>
     <t>63202001,63202004,63022101,63022201,63022301,63022401</t>
   </si>
   <si>
@@ -359,9 +332,6 @@
   </si>
   <si>
     <t>驯兽师</t>
-  </si>
-  <si>
-    <t>63203001,63203002,63203004,63023101,63023201,63023301,63023401</t>
   </si>
   <si>
     <t>63203001,63203004,63023101,63023201,63023301,63023401</t>
@@ -397,6 +367,46 @@
   </si>
   <si>
     <t>40002101,40000201</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63002001,63002002,63002003,63002004,63002005,61022101,61022201,61022301,61022401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63003001,63003002,63003003,63003004,61023101,61023201,61023301,61023401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63203001,63203002,63203003,63203004,63023101,63023201,63023301,63023401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63202001,63202002,63202003,63202004,63022101,63022201,63022301,63022401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63201001,63201002,63201003,63201004,63021101,63021201,63021301,63021401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63103001,63103002,63103003,63103004,62023101,62023201,62023301,62023401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63102001,63102002,63102003,63102004,62022101,62022201,62022301,62022401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63101001,63101002,63101003,63101004,62021101,62021201,62021301,62021401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63001001,63001002,63001003,63001004,61021101,61021201,61021301,61021401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2310,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2321,7 +2331,7 @@
     <col min="5" max="5" width="71.375" customWidth="1"/>
     <col min="6" max="6" width="68" customWidth="1"/>
     <col min="7" max="7" width="38.375" customWidth="1"/>
-    <col min="8" max="8" width="41.25" customWidth="1"/>
+    <col min="8" max="8" width="56.25" customWidth="1"/>
     <col min="9" max="9" width="22.375" customWidth="1"/>
     <col min="10" max="10" width="18.875" customWidth="1"/>
     <col min="11" max="11" width="23.75" customWidth="1"/>
@@ -2377,63 +2387,63 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2441,22 +2451,22 @@
         <v>101</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="J6" s="10">
         <v>1</v>
@@ -2465,10 +2475,10 @@
         <v>12</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2476,22 +2486,22 @@
         <v>102</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="I7" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="J7" s="10">
         <v>1</v>
@@ -2500,10 +2510,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2511,22 +2521,22 @@
         <v>103</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="J8" s="10">
         <v>2</v>
@@ -2535,10 +2545,10 @@
         <v>13</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2546,22 +2556,22 @@
         <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="J9" s="10">
         <v>3</v>
@@ -2570,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2581,22 +2591,22 @@
         <v>202</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J10" s="10">
         <v>4</v>
@@ -2605,10 +2615,10 @@
         <v>11</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2616,22 +2626,22 @@
         <v>203</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J11" s="10">
         <v>4</v>
@@ -2640,10 +2650,10 @@
         <v>13</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2651,22 +2661,22 @@
         <v>301</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="G12" s="12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J12" s="10">
         <v>5</v>
@@ -2675,10 +2685,10 @@
         <v>11</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,22 +2696,22 @@
         <v>302</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J13" s="10">
         <v>5</v>
@@ -2710,10 +2720,10 @@
         <v>12</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2721,22 +2731,22 @@
         <v>303</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="J14" s="10">
         <v>5</v>
@@ -2745,10 +2755,10 @@
         <v>13</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09EC3AF-8774-4F94-8A05-F2EE074CA1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06BE414-0A4F-4A2B-9D58-04AC535A4EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -2321,7 +2321,7 @@
   <dimension ref="C1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06BE414-0A4F-4A2B-9D58-04AC535A4EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB3D31-CA3B-4A60-9EC3-A48BB7417C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>63202001,63202002,63202003,63202004,63022101,63022201,63022301,63022401</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>63201001,63201002,63201003,63201004,63021101,63021201,63021301,63021401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -407,6 +403,10 @@
   </si>
   <si>
     <t>SkillID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63202001,63202002,63202003,63202004,63022101,63022201,63022301,63022401,63202005</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2320,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2387,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -2457,7 +2457,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>25</v>
@@ -2562,7 +2562,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>44</v>
@@ -2597,7 +2597,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>44</v>
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>44</v>
@@ -2667,7 +2667,7 @@
         <v>73</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>72</v>
@@ -2702,7 +2702,7 @@
         <v>74</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>72</v>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB3D31-CA3B-4A60-9EC3-A48BB7417C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542A216-3409-4F89-B05E-3DC1A80A58C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,10 +374,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>63003001,63003002,63003003,63003004,61023101,61023201,61023301,61023401</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>63203001,63203002,63203003,63203004,63023101,63023201,63023301,63023401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -407,6 +403,10 @@
   </si>
   <si>
     <t>63202001,63202002,63202003,63202004,63022101,63022201,63022301,63022401,63202005</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63003001,63003002,63003003,63003004,63003005,61023101,61023201,61023301,61023401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2321,7 +2321,7 @@
   <dimension ref="C1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2387,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -2457,7 +2457,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>25</v>
@@ -2527,7 +2527,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>25</v>
@@ -2562,7 +2562,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>44</v>
@@ -2597,7 +2597,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>44</v>
@@ -2632,7 +2632,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>44</v>
@@ -2667,7 +2667,7 @@
         <v>73</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>72</v>
@@ -2702,7 +2702,7 @@
         <v>74</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>72</v>
@@ -2737,7 +2737,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>72</v>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542A216-3409-4F89-B05E-3DC1A80A58C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C3BE6-C753-4188-B3B8-FCB48ACF95D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>63003001,63003002,63003003,63003004,63003005,61023101,61023201,61023301,61023401</t>
+    <t>63003001,63003002,63003003,63003004,61023101,61023201,61023301,61023401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2321,7 +2321,7 @@
   <dimension ref="C1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C3BE6-C753-4188-B3B8-FCB48ACF95D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F2C6F-E04F-45A8-B749-52EEC3631FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -407,6 +407,32 @@
   </si>
   <si>
     <t>63003001,63003002,63003003,63003004,61023101,61023201,61023301,61023401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,40002,40003,40011,40012,40013,40021,40022,40023,40031,40032,40033,40041,40042,40043,40051,40052,40053,40061,40062,40063</t>
+  </si>
+  <si>
+    <t>63301001,64013101,64013201,64013301,64013401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63302001,64014101,64014201,64014301,64014401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63303001,64015101,64015201,64015301,64015401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影刺客</t>
+  </si>
+  <si>
+    <t>疾风使者</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗祭祀</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2318,10 +2344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M14"/>
+  <dimension ref="C1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2761,6 +2787,134 @@
         <v>71</v>
       </c>
     </row>
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="8">
+        <v>401</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="10">
+        <v>3</v>
+      </c>
+      <c r="K15" s="10">
+        <v>11</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="8">
+        <v>402</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="10">
+        <v>4</v>
+      </c>
+      <c r="K16" s="10">
+        <v>11</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="8">
+        <v>403</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="10">
+        <v>4</v>
+      </c>
+      <c r="K17" s="10">
+        <v>13</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F2C6F-E04F-45A8-B749-52EEC3631FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873A1D0D-9EB0-455D-BF18-7C2C27FB1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -434,6 +434,15 @@
   <si>
     <t>黑暗祭祀</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>69054001,69054002,69054003,69054011,69054012,69054013,69054014,60031141</t>
+  </si>
+  <si>
+    <t>69054001,69054002,69054003,69054021,69054022,69054023,69054024,60031151</t>
+  </si>
+  <si>
+    <t>69054001,69054002,69054003,69054031,69054032,69054033,69054034,60031161</t>
   </si>
 </sst>
 </file>
@@ -2347,7 +2356,7 @@
   <dimension ref="C1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2819,7 +2828,7 @@
         <v>47</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2854,7 +2863,7 @@
         <v>53</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2889,7 +2898,7 @@
         <v>59</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873A1D0D-9EB0-455D-BF18-7C2C27FB1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFC22E6-4C20-4797-9E6B-D4A18C6F5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -436,13 +436,16 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>69054001,69054002,69054003,69054011,69054012,69054013,69054014,60031141</t>
-  </si>
-  <si>
-    <t>69054001,69054002,69054003,69054021,69054022,69054023,69054024,60031151</t>
-  </si>
-  <si>
-    <t>69054001,69054002,69054003,69054031,69054032,69054033,69054034,60031161</t>
+    <t>69054001,69054002,69054003,69054011,69054012,69054013,69054014,60031201</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>69054001,69054002,69054003,69054021,69054022,69054023,69054024,60031211</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>69054001,69054002,69054003,69054031,69054032,69054033,69054034,60031221</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2356,7 +2359,7 @@
   <dimension ref="C1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFC22E6-4C20-4797-9E6B-D4A18C6F5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686E1F7-7CB4-49EA-B8A2-E65E8D05CD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,9 +425,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>暗影刺客</t>
-  </si>
-  <si>
     <t>疾风使者</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -445,6 +442,10 @@
   </si>
   <si>
     <t>69054001,69054002,69054003,69054031,69054032,69054033,69054034,60031221</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影魔法</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2358,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2804,7 +2805,7 @@
         <v>401</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>43</v>
@@ -2831,7 +2832,7 @@
         <v>47</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2839,7 +2840,7 @@
         <v>402</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
@@ -2866,7 +2867,7 @@
         <v>53</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2874,7 +2875,7 @@
         <v>403</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>56</v>
@@ -2901,7 +2902,7 @@
         <v>59</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686E1F7-7CB4-49EA-B8A2-E65E8D05CD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21CBD80-F2A2-4AE8-8384-C1CF72A67431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OccupationTwoConfig" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
   <si>
     <t>Id</t>
   </si>
@@ -413,26 +413,10 @@
     <t>40001,40002,40003,40011,40012,40013,40021,40022,40023,40031,40032,40033,40041,40042,40043,40051,40052,40053,40061,40062,40063</t>
   </si>
   <si>
-    <t>63301001,64013101,64013201,64013301,64013401</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>63302001,64014101,64014201,64014301,64014401</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>63303001,64015101,64015201,64015301,64015401</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>疾风使者</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>黑暗祭祀</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>69054001,69054002,69054003,69054011,69054012,69054013,69054014,60031201</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -446,6 +430,34 @@
   </si>
   <si>
     <t>暗影魔法</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔影祭祀</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63301001,63201003,63301004,63301005,64013101,64013201,64013301,64013401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63302001,63202002,63302003,63302004,64014101,64014201,64014301,64014401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63303001,63203002,63303003,63303004,64015101,64015201,64015301,64015401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63301001,63301005,64013101,64013201,64013301,64013401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63302001,64014101,63302004,64014201,64014301,64014401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63303001,64015101,63303004,64015201,64015301,64015401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2359,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2805,19 +2817,19 @@
         <v>401</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>46</v>
@@ -2826,13 +2838,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2840,19 +2852,19 @@
         <v>402</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>52</v>
@@ -2867,7 +2879,7 @@
         <v>53</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,25 +2887,25 @@
         <v>403</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>89</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>58</v>
       </c>
       <c r="J17" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="10">
         <v>13</v>
@@ -2902,7 +2914,7 @@
         <v>59</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21CBD80-F2A2-4AE8-8384-C1CF72A67431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A039A5-4AEF-4922-9FAD-AD7F97753F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,11 +453,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>63302001,64014101,63302004,64014201,64014301,64014401</t>
+    <t>63302001,63302004,64014101,64014201,64014301,64014401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>63303001,64015101,63303004,64015201,64015301,64015401</t>
+    <t>63303001,63303004,64015101,64015201,64015301,64015401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>

--- a/Excel/OccupationTwoConfig.xlsx
+++ b/Excel/OccupationTwoConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A039A5-4AEF-4922-9FAD-AD7F97753F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23491955-DA5E-4C6A-B35A-D8DB76B52641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,18 +437,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>63301001,63201003,63301004,63301005,64013101,64013201,64013301,64013401</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>63302001,63202002,63302003,63302004,64014101,64014201,64014301,64014401</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>63303001,63203002,63303003,63303004,64015101,64015201,64015301,64015401</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>63301001,63301005,64013101,64013201,64013301,64013401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -458,6 +446,18 @@
   </si>
   <si>
     <t>63303001,63303004,64015101,64015201,64015301,64015401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63303001,63303002,63303003,63303004,64015101,64015201,64015301,64015401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63301001,63301003,63301004,63301005,64013101,64013201,64013301,64013401</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>63302001,63302002,63302003,63302004,64014101,64014201,64014301,64014401</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2372,7 +2372,7 @@
   <dimension ref="C1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2823,13 +2823,13 @@
         <v>43</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>46</v>
@@ -2858,13 +2858,13 @@
         <v>50</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>52</v>
@@ -2893,13 +2893,13 @@
         <v>56</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>89</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>58</v>
